--- a/replication/results/table6_panel2.xlsx
+++ b/replication/results/table6_panel2.xlsx
@@ -43,10 +43,10 @@
     <t>bac_test_primary</t>
   </si>
   <si>
-    <t>(1.12)</t>
-  </si>
-  <si>
-    <t>(0.99)</t>
+    <t>(1.3)</t>
+  </si>
+  <si>
+    <t>(1.05)</t>
   </si>
   <si>
     <t>(0.005)</t>
@@ -55,13 +55,13 @@
     <t>multiple_imputation</t>
   </si>
   <si>
-    <t>(0.49)</t>
-  </si>
-  <si>
-    <t>(0.4)</t>
-  </si>
-  <si>
-    <t>(0.002)</t>
+    <t>(0.62)</t>
+  </si>
+  <si>
+    <t>(0.5)</t>
+  </si>
+  <si>
+    <t>(0.003)</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
         <v>14.25</v>
       </c>
       <c r="C3">
-        <v>15.15</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>14.66</v>
       </c>
       <c r="C5">
-        <v>14.98</v>
+        <v>15.21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -496,7 +496,7 @@
         <v>0.081</v>
       </c>
       <c r="C7">
-        <v>0.068</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -518,7 +518,7 @@
         <v>1594</v>
       </c>
       <c r="C9">
-        <v>7200</v>
+        <v>6533</v>
       </c>
     </row>
   </sheetData>

--- a/replication/results/table6_panel2.xlsx
+++ b/replication/results/table6_panel2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w18d541\Documents\GitHub\lp\replication\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,12 +48,6 @@
     <t>bac_test_primary</t>
   </si>
   <si>
-    <t>(1.3)</t>
-  </si>
-  <si>
-    <t>(1.05)</t>
-  </si>
-  <si>
     <t>(0.005)</t>
   </si>
   <si>
@@ -62,13 +61,19 @@
   </si>
   <si>
     <t>(0.003)</t>
+  </si>
+  <si>
+    <t>(1.48)</t>
+  </si>
+  <si>
+    <t>(1.12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,17 +125,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -177,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +223,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +434,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -433,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,10 +459,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -455,18 +473,18 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -477,40 +495,40 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C7">
         <v>0.104</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>

--- a/replication/results/table6_panel2.xlsx
+++ b/replication/results/table6_panel2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>drink_def</t>
   </si>
@@ -43,22 +43,31 @@
     <t>impaired_vs_sober</t>
   </si>
   <si>
-    <t>(1.89)</t>
-  </si>
-  <si>
-    <t>(1.54)</t>
-  </si>
-  <si>
-    <t>(0.006)</t>
+    <t>(1.63)</t>
+  </si>
+  <si>
+    <t>(1.4)</t>
+  </si>
+  <si>
+    <t>(0.005)</t>
   </si>
   <si>
     <t>multiple_imputation</t>
   </si>
   <si>
-    <t>(0.39)</t>
-  </si>
-  <si>
-    <t>(0.32)</t>
+    <t>(1.3)</t>
+  </si>
+  <si>
+    <t>(0.98)</t>
+  </si>
+  <si>
+    <t>(0.008)</t>
+  </si>
+  <si>
+    <t>(0.41)</t>
+  </si>
+  <si>
+    <t>(0.33)</t>
   </si>
   <si>
     <t>(0.003)</t>
@@ -419,21 +428,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +455,11 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,10 +467,13 @@
         <v>15.72</v>
       </c>
       <c r="C3">
+        <v>11.59</v>
+      </c>
+      <c r="D3">
         <v>11.14</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -465,8 +483,11 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -474,10 +495,13 @@
         <v>16.56</v>
       </c>
       <c r="C5">
+        <v>12.51</v>
+      </c>
+      <c r="D5">
         <v>11.45</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,8 +511,11 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -496,10 +523,13 @@
         <v>0.073</v>
       </c>
       <c r="C7">
+        <v>0.119</v>
+      </c>
+      <c r="D7">
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -509,8 +539,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -518,6 +551,9 @@
         <v>1444</v>
       </c>
       <c r="C9">
+        <v>1392</v>
+      </c>
+      <c r="D9">
         <v>6588</v>
       </c>
     </row>
